--- a/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
+++ b/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.3.1.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.10.0.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C188B18B-2D66-4D48-96C6-B1D04BC657EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD62346-36DE-4E6D-AB0C-746CF92C53AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getConceptModelDataByCondition" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="84">
   <si>
     <t>name</t>
   </si>
@@ -99,18 +99,9 @@
     <t>bad request (fields content is not present)</t>
   </si>
   <si>
-    <t>fields false not exist in entity!</t>
-  </si>
-  <si>
     <t>bad request (order content is not present)</t>
   </si>
   <si>
-    <t>bad request:error order: 12321</t>
-  </si>
-  <si>
-    <t>bad request:error order: *</t>
-  </si>
-  <si>
     <t>snc-connector-test-1-var1</t>
   </si>
   <si>
@@ -283,6 +274,9 @@
   </si>
   <si>
     <t>Material</t>
+  </si>
+  <si>
+    <t>not exist in entity!</t>
   </si>
 </sst>
 </file>
@@ -643,8 +637,8 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -696,7 +690,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -705,7 +699,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -717,7 +711,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -726,7 +720,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -738,7 +732,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -765,7 +759,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
@@ -790,18 +784,18 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -813,18 +807,18 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -836,18 +830,18 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -859,18 +853,18 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -882,7 +876,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>5</v>
@@ -893,7 +887,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -905,7 +899,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>5</v>
@@ -916,7 +910,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -928,7 +922,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>20</v>
@@ -939,7 +933,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -951,7 +945,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>20</v>
@@ -962,7 +956,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -974,7 +968,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>5</v>
@@ -982,10 +976,10 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -997,7 +991,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>5</v>
@@ -1005,10 +999,10 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1020,7 +1014,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>5</v>
@@ -1031,7 +1025,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1043,7 +1037,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>23</v>
@@ -1051,10 +1045,10 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -1065,12 +1059,12 @@
         <v>106107</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>23</v>
@@ -1078,10 +1072,10 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1092,12 +1086,12 @@
         <v>106107</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>5</v>
@@ -1106,10 +1100,10 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1120,7 +1114,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>5</v>
@@ -1129,10 +1123,10 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3">
@@ -1145,7 +1139,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>5</v>
@@ -1154,10 +1148,10 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3">
@@ -1170,7 +1164,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>5</v>
@@ -1179,10 +1173,10 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3">
@@ -1195,16 +1189,16 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G23" s="3">
         <v>12321</v>
@@ -1214,24 +1208,24 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3">
-        <v>106601</v>
+        <v>106107</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G24" s="3">
         <v>12321</v>
@@ -1241,24 +1235,24 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3">
-        <v>106601</v>
+        <v>106107</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>22</v>
@@ -1268,24 +1262,24 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3">
-        <v>106601</v>
+        <v>106107</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>22</v>
@@ -1295,15 +1289,15 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3">
-        <v>106601</v>
+        <v>106107</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>5</v>
@@ -1312,7 +1306,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3">
@@ -1326,7 +1320,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>5</v>
@@ -1335,7 +1329,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3">
@@ -1349,7 +1343,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>5</v>
@@ -1358,7 +1352,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -1372,7 +1366,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>5</v>
@@ -1381,7 +1375,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -1395,7 +1389,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>5</v>
@@ -1404,7 +1398,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3">
@@ -1420,7 +1414,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>5</v>
@@ -1429,7 +1423,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3">
@@ -1445,7 +1439,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>5</v>
@@ -1454,7 +1448,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3">
@@ -1470,7 +1464,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>5</v>
@@ -1479,7 +1473,7 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3">
@@ -1495,7 +1489,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>5</v>
@@ -1504,7 +1498,7 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3">
@@ -1520,7 +1514,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>5</v>
@@ -1529,7 +1523,7 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3">
@@ -1545,7 +1539,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>5</v>
@@ -1554,7 +1548,7 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3">
@@ -1570,7 +1564,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>5</v>
@@ -1579,7 +1573,7 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3">
@@ -1595,7 +1589,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>5</v>
@@ -1604,7 +1598,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3">
@@ -1618,7 +1612,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>5</v>
@@ -1627,7 +1621,7 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3">
@@ -1641,7 +1635,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>5</v>
@@ -1650,7 +1644,7 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3">
@@ -1664,7 +1658,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>5</v>
@@ -1673,7 +1667,7 @@
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3">
@@ -1687,7 +1681,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>5</v>
@@ -1696,7 +1690,7 @@
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -1710,7 +1704,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>5</v>
@@ -1719,7 +1713,7 @@
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -1733,7 +1727,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>5</v>
@@ -1742,7 +1736,7 @@
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -1756,7 +1750,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>5</v>
@@ -1765,7 +1759,7 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>

--- a/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
+++ b/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.10.0.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD62346-36DE-4E6D-AB0C-746CF92C53AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83439F1A-F0DF-446C-BD7C-454E0C040972}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32811" yWindow="-129" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getConceptModelDataByCondition" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="164">
   <si>
     <t>name</t>
   </si>
@@ -277,6 +277,246 @@
   </si>
   <si>
     <t>not exist in entity!</t>
+  </si>
+  <si>
+    <t>id='70000'</t>
+  </si>
+  <si>
+    <t>Work_Center</t>
+  </si>
+  <si>
+    <t>product_type='PCBL'</t>
+  </si>
+  <si>
+    <t>sales_order='UPM'</t>
+  </si>
+  <si>
+    <t>Product_Order</t>
+  </si>
+  <si>
+    <t>product_level='ME'</t>
+  </si>
+  <si>
+    <t>Production_Procedure</t>
+  </si>
+  <si>
+    <t>procedure_id='A0001'</t>
+  </si>
+  <si>
+    <t>Work_Position</t>
+  </si>
+  <si>
+    <t>val='45'</t>
+  </si>
+  <si>
+    <t>KPI</t>
+  </si>
+  <si>
+    <t>registered_capital='50000000'</t>
+  </si>
+  <si>
+    <t>Plant_Owner</t>
+  </si>
+  <si>
+    <t>test_result='P'</t>
+  </si>
+  <si>
+    <t>Product_Qualification</t>
+  </si>
+  <si>
+    <t>id='3'</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>amps='23.3'</t>
+  </si>
+  <si>
+    <t>start_time&gt;'2019-08-07 00:00:00'</t>
+  </si>
+  <si>
+    <t>end_time&lt;'2019-08-08T00:00:00'</t>
+  </si>
+  <si>
+    <t>product='A5E33593642'</t>
+  </si>
+  <si>
+    <t>quantity='25.0'</t>
+  </si>
+  <si>
+    <t>BOM</t>
+  </si>
+  <si>
+    <t>consume_quantity='1'</t>
+  </si>
+  <si>
+    <t>snc-connector-test-oracle-string-1</t>
+  </si>
+  <si>
+    <t>snc-connector-test-oracle-string-2</t>
+  </si>
+  <si>
+    <t>snc-connector-test-oracle-string-3</t>
+  </si>
+  <si>
+    <t>snc-connector-test-oracle-string-4</t>
+  </si>
+  <si>
+    <t>snc-connector-test-oracle-string-5</t>
+  </si>
+  <si>
+    <t>snc-connector-test-oracle-string-6</t>
+  </si>
+  <si>
+    <t>snc-connector-test-oracle-string-7</t>
+  </si>
+  <si>
+    <t>snc-connector-test-oracle-string-8</t>
+  </si>
+  <si>
+    <t>snc-connector-test-oracle-number-1</t>
+  </si>
+  <si>
+    <t>snc-connector-test-oracle-float-1</t>
+  </si>
+  <si>
+    <t>snc-connector-test-oracle-time-1</t>
+  </si>
+  <si>
+    <t>snc-connector-test-oracle-time-2</t>
+  </si>
+  <si>
+    <t>snc-connector-test-sqlserver-string-1</t>
+  </si>
+  <si>
+    <t>snc-connector-test-sqlserver-float-1</t>
+  </si>
+  <si>
+    <t>snc-connector-test-sqlserver-bit-1</t>
+  </si>
+  <si>
+    <t>snc-connector-test-sqlserver-bit-2</t>
+  </si>
+  <si>
+    <t>snc-connector-test-sqlserver-bit-3</t>
+  </si>
+  <si>
+    <t>snc-connector-test-sqlserver-bit-4</t>
+  </si>
+  <si>
+    <t>snc-connector-test-sqlserver-bit-5</t>
+  </si>
+  <si>
+    <t>snc-connector-test-sqlserver-bit-6</t>
+  </si>
+  <si>
+    <t>snc-connector-test-sqlserver-int-1</t>
+  </si>
+  <si>
+    <t>snc-connector-test-sqlserver-time-1</t>
+  </si>
+  <si>
+    <t>snc-connector-test-sqlserver-time-2</t>
+  </si>
+  <si>
+    <t>snc-connector-test-sqlserver-time-3</t>
+  </si>
+  <si>
+    <t>snc-connector-test-sqlserver-time-4</t>
+  </si>
+  <si>
+    <t>snc-connector-test-clickhouse-string-1</t>
+  </si>
+  <si>
+    <t>id='SIMANTIC300'</t>
+  </si>
+  <si>
+    <t>SINAMICS_300_Log</t>
+  </si>
+  <si>
+    <t>port='8'</t>
+  </si>
+  <si>
+    <t>snc-connector-test-clickhouse-float-1</t>
+  </si>
+  <si>
+    <t>outputcurrent_actual_AI0='98.21999'</t>
+  </si>
+  <si>
+    <t>snc-connector-test-clickhouse-time-1</t>
+  </si>
+  <si>
+    <t>snc-connector-test-clickhouse-time-2</t>
+  </si>
+  <si>
+    <t>snc-connector-test-clickhouse-time-3</t>
+  </si>
+  <si>
+    <t>snc-connector-test-clickhouse-time-4</t>
+  </si>
+  <si>
+    <t>snc-connector-test-clickhouse-int-1</t>
+  </si>
+  <si>
+    <t>IgnoreShortages='false'</t>
+  </si>
+  <si>
+    <t>IgnoreShortages='true'</t>
+  </si>
+  <si>
+    <t>IgnoreShortages=false</t>
+  </si>
+  <si>
+    <t>IgnoreShortages=true</t>
+  </si>
+  <si>
+    <t>update_time&gt;'2021-06-03T04:50:19'</t>
+  </si>
+  <si>
+    <t>update_time&lt;'2021-06-03T04:50:19'</t>
+  </si>
+  <si>
+    <t>update_time&gt;'2021-06-03 04:50:19'</t>
+  </si>
+  <si>
+    <t>update_time&lt;'2021-06-03 04:50:19'</t>
+  </si>
+  <si>
+    <t>snc-connector-test-oracle-time-3</t>
+  </si>
+  <si>
+    <t>snc-connector-test-oracle-time-4</t>
+  </si>
+  <si>
+    <t>start_time&gt;'2019-08-07T00:00:00'</t>
+  </si>
+  <si>
+    <t>end_time&lt;'2019-08-08 00:00:00'</t>
+  </si>
+  <si>
+    <t>good request, data retrieved (no scheme check)</t>
+  </si>
+  <si>
+    <t>good request, data retrieved (no scheme check, no condition check)</t>
+  </si>
+  <si>
+    <t>IgnoreShortages=0</t>
+  </si>
+  <si>
+    <t>IgnoreShortages=1</t>
+  </si>
+  <si>
+    <t>demand_date&gt;'2019-08-13 07:23:50'</t>
+  </si>
+  <si>
+    <t>demand_date&lt;'2019-08-13 07:23:50'</t>
+  </si>
+  <si>
+    <t>demand_date&gt;'2019-08-13T07:23:50'</t>
+  </si>
+  <si>
+    <t>demand_date&lt;'2019-08-13T07:23:50'</t>
   </si>
 </sst>
 </file>
@@ -634,20 +874,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ABFD6B-5C24-4B5A-830A-CA8DC1E4BA91}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="30.6328125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="12.6328125" style="1"/>
+    <col min="1" max="1" width="30.61328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.4609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.61328125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="12.61328125" style="1"/>
+    <col min="6" max="6" width="17.53515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="12.61328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -688,7 +932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
@@ -709,7 +953,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -730,7 +974,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -757,7 +1001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -782,7 +1026,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -805,7 +1049,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -828,7 +1072,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
@@ -851,7 +1095,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
@@ -874,7 +1118,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
@@ -897,7 +1141,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>40</v>
       </c>
@@ -920,7 +1164,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
@@ -943,7 +1187,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
@@ -966,7 +1210,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -989,7 +1233,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>45</v>
       </c>
@@ -1012,7 +1256,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -1035,7 +1279,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
@@ -1062,7 +1306,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>53</v>
       </c>
@@ -1089,7 +1333,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
@@ -1112,7 +1356,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
@@ -1137,7 +1381,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>58</v>
       </c>
@@ -1162,7 +1406,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>59</v>
       </c>
@@ -1187,7 +1431,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
@@ -1214,7 +1458,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
@@ -1241,7 +1485,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>61</v>
       </c>
@@ -1268,7 +1512,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>60</v>
       </c>
@@ -1295,7 +1539,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>62</v>
       </c>
@@ -1318,7 +1562,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>63</v>
       </c>
@@ -1341,7 +1585,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>64</v>
       </c>
@@ -1364,7 +1608,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>65</v>
       </c>
@@ -1387,7 +1631,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>66</v>
       </c>
@@ -1412,7 +1656,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>67</v>
       </c>
@@ -1437,7 +1681,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>68</v>
       </c>
@@ -1462,7 +1706,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>69</v>
       </c>
@@ -1487,7 +1731,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>70</v>
       </c>
@@ -1512,7 +1756,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>71</v>
       </c>
@@ -1537,7 +1781,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>72</v>
       </c>
@@ -1562,7 +1806,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>73</v>
       </c>
@@ -1587,7 +1831,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>74</v>
       </c>
@@ -1610,7 +1854,7 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>75</v>
       </c>
@@ -1633,7 +1877,7 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>76</v>
       </c>
@@ -1656,7 +1900,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>77</v>
       </c>
@@ -1679,7 +1923,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>78</v>
       </c>
@@ -1702,7 +1946,7 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>79</v>
       </c>
@@ -1725,7 +1969,7 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>80</v>
       </c>
@@ -1748,7 +1992,7 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>81</v>
       </c>
@@ -1770,6 +2014,788 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="L62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="L67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="L68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="L69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+      <c r="L70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="L71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0</v>
+      </c>
+      <c r="L73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H74" s="1">
+        <v>1</v>
+      </c>
+      <c r="I74" s="1">
+        <v>2</v>
+      </c>
+      <c r="L74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H75" s="1">
+        <v>1</v>
+      </c>
+      <c r="I75" s="1">
+        <v>2</v>
+      </c>
+      <c r="L75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0</v>
+      </c>
+      <c r="L76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H77" s="1">
+        <v>1</v>
+      </c>
+      <c r="I77" s="1">
+        <v>2</v>
+      </c>
+      <c r="L77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H78" s="1">
+        <v>1</v>
+      </c>
+      <c r="I78" s="1">
+        <v>2</v>
+      </c>
+      <c r="L78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H79" s="1">
+        <v>1</v>
+      </c>
+      <c r="I79" s="1">
+        <v>2</v>
+      </c>
+      <c r="L79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H80" s="1">
+        <v>1</v>
+      </c>
+      <c r="I80" s="1">
+        <v>2</v>
+      </c>
+      <c r="L80" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
+++ b/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83439F1A-F0DF-446C-BD7C-454E0C040972}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24115B26-0B17-47B8-8C05-5B73FE15A3DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32811" yWindow="-129" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,12 +495,6 @@
     <t>end_time&lt;'2019-08-08 00:00:00'</t>
   </si>
   <si>
-    <t>good request, data retrieved (no scheme check)</t>
-  </si>
-  <si>
-    <t>good request, data retrieved (no scheme check, no condition check)</t>
-  </si>
-  <si>
     <t>IgnoreShortages=0</t>
   </si>
   <si>
@@ -517,6 +511,12 @@
   </si>
   <si>
     <t>demand_date&lt;'2019-08-13T07:23:50'</t>
+  </si>
+  <si>
+    <t>good request, data retrieved (no schema check)</t>
+  </si>
+  <si>
+    <t>good request, data retrieved (no schema check, no condition check)</t>
   </si>
 </sst>
 </file>
@@ -878,7 +878,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
@@ -2020,7 +2020,7 @@
         <v>108</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>84</v>
@@ -2043,7 +2043,7 @@
         <v>109</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>86</v>
@@ -2066,7 +2066,7 @@
         <v>110</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>87</v>
@@ -2089,7 +2089,7 @@
         <v>111</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>89</v>
@@ -2112,7 +2112,7 @@
         <v>112</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>91</v>
@@ -2135,7 +2135,7 @@
         <v>113</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>93</v>
@@ -2158,7 +2158,7 @@
         <v>114</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>95</v>
@@ -2181,7 +2181,7 @@
         <v>115</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>97</v>
@@ -2204,7 +2204,7 @@
         <v>116</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>99</v>
@@ -2227,7 +2227,7 @@
         <v>117</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>101</v>
@@ -2250,7 +2250,7 @@
         <v>118</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>102</v>
@@ -2273,7 +2273,7 @@
         <v>119</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>155</v>
@@ -2296,7 +2296,7 @@
         <v>152</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>154</v>
@@ -2319,7 +2319,7 @@
         <v>153</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>103</v>
@@ -2342,7 +2342,7 @@
         <v>120</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>104</v>
@@ -2365,7 +2365,7 @@
         <v>121</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>105</v>
@@ -2388,7 +2388,7 @@
         <v>122</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>144</v>
@@ -2411,7 +2411,7 @@
         <v>123</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>145</v>
@@ -2434,7 +2434,7 @@
         <v>124</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>146</v>
@@ -2457,7 +2457,7 @@
         <v>125</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>147</v>
@@ -2480,10 +2480,10 @@
         <v>126</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>106</v>
@@ -2503,10 +2503,10 @@
         <v>127</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>106</v>
@@ -2526,7 +2526,7 @@
         <v>128</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>107</v>
@@ -2549,10 +2549,10 @@
         <v>129</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>88</v>
@@ -2572,10 +2572,10 @@
         <v>130</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>88</v>
@@ -2595,10 +2595,10 @@
         <v>131</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>88</v>
@@ -2618,10 +2618,10 @@
         <v>132</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>88</v>
@@ -2641,7 +2641,7 @@
         <v>133</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>134</v>
@@ -2664,7 +2664,7 @@
         <v>143</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>136</v>
@@ -2687,7 +2687,7 @@
         <v>137</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>138</v>
@@ -2710,7 +2710,7 @@
         <v>139</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>150</v>
@@ -2733,7 +2733,7 @@
         <v>140</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>151</v>
@@ -2756,7 +2756,7 @@
         <v>141</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>148</v>
@@ -2779,7 +2779,7 @@
         <v>142</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>149</v>

--- a/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
+++ b/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24115B26-0B17-47B8-8C05-5B73FE15A3DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEFDD27-35FA-4D7C-8C08-C85EF313E860}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32811" yWindow="-129" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="172">
   <si>
     <t>name</t>
   </si>
@@ -517,6 +517,30 @@
   </si>
   <si>
     <t>good request, data retrieved (no schema check, no condition check)</t>
+  </si>
+  <si>
+    <t>Work_Center3</t>
+  </si>
+  <si>
+    <t>snc-connector-differentTablesInTwoDb-1</t>
+  </si>
+  <si>
+    <t>snc-connector-differentTablesInTwoDb-2</t>
+  </si>
+  <si>
+    <t>snc-connector-differentTablesInTwoDb-3</t>
+  </si>
+  <si>
+    <t>snc-connector-differentTablesInTwoDb-4</t>
+  </si>
+  <si>
+    <t>snc-connector-differentTablesInTwoDb-5</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>id='A5E03262697'</t>
   </si>
 </sst>
 </file>
@@ -874,16 +898,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ABFD6B-5C24-4B5A-830A-CA8DC1E4BA91}">
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.61328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.15234375" style="1" customWidth="1"/>
     <col min="2" max="2" width="50.4609375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.61328125" style="1" customWidth="1"/>
     <col min="4" max="5" width="12.61328125" style="1"/>
@@ -2797,6 +2821,94 @@
         <v>0</v>
       </c>
     </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H85" s="1">
+        <v>1</v>
+      </c>
+      <c r="I85" s="1">
+        <v>2</v>
+      </c>
+      <c r="L85" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
+++ b/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEFDD27-35FA-4D7C-8C08-C85EF313E860}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25335096-806F-4902-9B65-8843140C8E00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32811" yWindow="-129" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="180">
   <si>
     <t>name</t>
   </si>
@@ -541,6 +541,30 @@
   </si>
   <si>
     <t>id='A5E03262697'</t>
+  </si>
+  <si>
+    <t>snc-connector-differentTablesInTwoDb-6</t>
+  </si>
+  <si>
+    <t>plant_owner=3</t>
+  </si>
+  <si>
+    <t>location,-description</t>
+  </si>
+  <si>
+    <t>bad request (condition includes rule key)</t>
+  </si>
+  <si>
+    <t>sql execution failed:Error while executing SQL</t>
+  </si>
+  <si>
+    <t>snc-connector-differentTablesInTwoDb-7</t>
+  </si>
+  <si>
+    <t>snc-connector-differentTablesInTwoDb-8</t>
+  </si>
+  <si>
+    <t>do not support ruleKey value</t>
   </si>
 </sst>
 </file>
@@ -898,11 +922,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ABFD6B-5C24-4B5A-830A-CA8DC1E4BA91}">
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
@@ -912,7 +936,9 @@
     <col min="3" max="3" width="32.61328125" style="1" customWidth="1"/>
     <col min="4" max="5" width="12.61328125" style="1"/>
     <col min="6" max="6" width="17.53515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="12.61328125" style="1"/>
+    <col min="7" max="12" width="12.61328125" style="1"/>
+    <col min="13" max="13" width="32.61328125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="12.61328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -2821,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>165</v>
       </c>
@@ -2835,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>166</v>
       </c>
@@ -2852,32 +2878,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="F83" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="G83" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="L83" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>1</v>
+      <c r="C84" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>164</v>
@@ -2886,27 +2912,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>162</v>
       </c>
+      <c r="E85" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="F85" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="L85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H85" s="1">
+      <c r="H86" s="1">
         <v>1</v>
       </c>
-      <c r="I85" s="1">
+      <c r="I86" s="1">
         <v>2</v>
       </c>
-      <c r="L85" s="1">
-        <v>0</v>
+      <c r="L86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L87" s="1">
+        <v>106601</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H88" s="1">
+        <v>1</v>
+      </c>
+      <c r="I88" s="1">
+        <v>2</v>
+      </c>
+      <c r="L88" s="1">
+        <v>106103</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
+++ b/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25335096-806F-4902-9B65-8843140C8E00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC1165C-37D6-4726-A011-BE4B60544594}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32811" yWindow="-129" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getConceptModelDataByCondition" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="179">
   <si>
     <t>name</t>
   </si>
@@ -553,9 +553,6 @@
   </si>
   <si>
     <t>bad request (condition includes rule key)</t>
-  </si>
-  <si>
-    <t>sql execution failed:Error while executing SQL</t>
   </si>
   <si>
     <t>snc-connector-differentTablesInTwoDb-7</t>
@@ -925,8 +922,8 @@
   <dimension ref="A1:M88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M88" sqref="M88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
@@ -2954,7 +2951,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>175</v>
@@ -2969,15 +2966,15 @@
         <v>106601</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>164</v>
@@ -2989,10 +2986,7 @@
         <v>2</v>
       </c>
       <c r="L88" s="1">
-        <v>106103</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>176</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
+++ b/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25335096-806F-4902-9B65-8843140C8E00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CACE89-6F4E-4DD3-8CE0-9C15F7F1E27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32811" yWindow="-129" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getConceptModelDataByCondition" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="179">
   <si>
     <t>name</t>
   </si>
@@ -553,9 +553,6 @@
   </si>
   <si>
     <t>bad request (condition includes rule key)</t>
-  </si>
-  <si>
-    <t>sql execution failed:Error while executing SQL</t>
   </si>
   <si>
     <t>snc-connector-differentTablesInTwoDb-7</t>
@@ -924,9 +921,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ABFD6B-5C24-4B5A-830A-CA8DC1E4BA91}">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
+      <selection pane="bottomLeft" activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
@@ -2954,7 +2951,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>175</v>
@@ -2969,15 +2966,15 @@
         <v>106601</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>164</v>
@@ -2989,10 +2986,7 @@
         <v>2</v>
       </c>
       <c r="L88" s="1">
-        <v>106103</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>176</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
+++ b/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-with-comment\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CACE89-6F4E-4DD3-8CE0-9C15F7F1E27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCFFE2A-FCEE-472B-81FA-EA01916BD594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getConceptModelDataByCondition" sheetId="2" r:id="rId1"/>
@@ -441,9 +441,6 @@
     <t>snc-connector-test-clickhouse-float-1</t>
   </si>
   <si>
-    <t>outputcurrent_actual_AI0='98.21999'</t>
-  </si>
-  <si>
     <t>snc-connector-test-clickhouse-time-1</t>
   </si>
   <si>
@@ -474,15 +471,9 @@
     <t>update_time&gt;'2021-06-03T04:50:19'</t>
   </si>
   <si>
-    <t>update_time&lt;'2021-06-03T04:50:19'</t>
-  </si>
-  <si>
     <t>update_time&gt;'2021-06-03 04:50:19'</t>
   </si>
   <si>
-    <t>update_time&lt;'2021-06-03 04:50:19'</t>
-  </si>
-  <si>
     <t>snc-connector-test-oracle-time-3</t>
   </si>
   <si>
@@ -562,6 +553,18 @@
   </si>
   <si>
     <t>do not support ruleKey value</t>
+  </si>
+  <si>
+    <t>outputcurrent_actual_AI0='160.66702'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time&lt;'2021-09-06 13:33:58'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time&lt;'2021-09-06T13:34:18'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -572,20 +575,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -922,23 +925,23 @@
   <dimension ref="A1:M88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A90" sqref="A90"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.15234375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.61328125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="12.61328125" style="1"/>
-    <col min="6" max="6" width="17.53515625" style="1" customWidth="1"/>
-    <col min="7" max="12" width="12.61328125" style="1"/>
-    <col min="13" max="13" width="32.61328125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="12.61328125" style="1"/>
+    <col min="1" max="1" width="33.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" style="1"/>
+    <col min="6" max="6" width="17.5546875" style="1" customWidth="1"/>
+    <col min="7" max="12" width="12.6640625" style="1"/>
+    <col min="13" max="13" width="32.6640625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -979,7 +982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
@@ -1000,7 +1003,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -1021,7 +1024,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -1048,7 +1051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -1073,7 +1076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -1096,7 +1099,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -1119,7 +1122,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
@@ -1142,7 +1145,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
@@ -1165,7 +1168,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
@@ -1188,7 +1191,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>40</v>
       </c>
@@ -1211,7 +1214,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
@@ -1234,7 +1237,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
@@ -1257,7 +1260,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -1280,7 +1283,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>45</v>
       </c>
@@ -1303,7 +1306,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -1326,7 +1329,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
@@ -1353,7 +1356,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>53</v>
       </c>
@@ -1380,7 +1383,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
@@ -1403,7 +1406,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
@@ -1428,7 +1431,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>58</v>
       </c>
@@ -1453,7 +1456,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>59</v>
       </c>
@@ -1478,7 +1481,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
@@ -1505,7 +1508,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
@@ -1532,7 +1535,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>61</v>
       </c>
@@ -1559,7 +1562,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>60</v>
       </c>
@@ -1586,7 +1589,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>62</v>
       </c>
@@ -1609,7 +1612,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>63</v>
       </c>
@@ -1632,7 +1635,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>64</v>
       </c>
@@ -1655,7 +1658,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>65</v>
       </c>
@@ -1678,7 +1681,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>66</v>
       </c>
@@ -1703,7 +1706,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>67</v>
       </c>
@@ -1728,7 +1731,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>68</v>
       </c>
@@ -1753,7 +1756,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>69</v>
       </c>
@@ -1778,7 +1781,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>70</v>
       </c>
@@ -1803,7 +1806,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>71</v>
       </c>
@@ -1828,7 +1831,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>72</v>
       </c>
@@ -1853,7 +1856,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>73</v>
       </c>
@@ -1878,7 +1881,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>74</v>
       </c>
@@ -1901,7 +1904,7 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>75</v>
       </c>
@@ -1924,7 +1927,7 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>76</v>
       </c>
@@ -1947,7 +1950,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>77</v>
       </c>
@@ -1970,7 +1973,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>78</v>
       </c>
@@ -1993,7 +1996,7 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>79</v>
       </c>
@@ -2016,7 +2019,7 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>80</v>
       </c>
@@ -2039,7 +2042,7 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>81</v>
       </c>
@@ -2062,12 +2065,12 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>84</v>
@@ -2085,12 +2088,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>86</v>
@@ -2108,12 +2111,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>87</v>
@@ -2131,12 +2134,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>89</v>
@@ -2154,12 +2157,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>91</v>
@@ -2177,12 +2180,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>93</v>
@@ -2200,12 +2203,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>95</v>
@@ -2223,12 +2226,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>97</v>
@@ -2246,12 +2249,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>99</v>
@@ -2269,12 +2272,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>101</v>
@@ -2292,12 +2295,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>102</v>
@@ -2315,15 +2318,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>26</v>
@@ -2338,15 +2341,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>26</v>
@@ -2361,12 +2364,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>103</v>
@@ -2384,12 +2387,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>104</v>
@@ -2407,12 +2410,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>105</v>
@@ -2430,15 +2433,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>106</v>
@@ -2453,15 +2456,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>106</v>
@@ -2476,15 +2479,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>106</v>
@@ -2499,15 +2502,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>106</v>
@@ -2522,15 +2525,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>106</v>
@@ -2545,15 +2548,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>106</v>
@@ -2568,12 +2571,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>107</v>
@@ -2591,15 +2594,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>88</v>
@@ -2614,15 +2617,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>88</v>
@@ -2637,15 +2640,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>88</v>
@@ -2660,15 +2663,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>88</v>
@@ -2683,12 +2686,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>134</v>
@@ -2706,12 +2709,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>136</v>
@@ -2729,15 +2732,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>135</v>
@@ -2752,15 +2755,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>135</v>
@@ -2775,15 +2778,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>135</v>
@@ -2798,15 +2801,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>135</v>
@@ -2821,15 +2824,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>135</v>
@@ -2844,100 +2847,100 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="L81" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
+      <c r="B84" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="L82" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="L83" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="L84" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="B85" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L85" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H86" s="1">
         <v>1</v>
@@ -2949,35 +2952,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L87" s="1">
         <v>106601</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H88" s="1">
         <v>1</v>

--- a/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
+++ b/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-with-comment\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC1165C-37D6-4726-A011-BE4B60544594}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCFFE2A-FCEE-472B-81FA-EA01916BD594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getConceptModelDataByCondition" sheetId="2" r:id="rId1"/>
@@ -441,9 +441,6 @@
     <t>snc-connector-test-clickhouse-float-1</t>
   </si>
   <si>
-    <t>outputcurrent_actual_AI0='98.21999'</t>
-  </si>
-  <si>
     <t>snc-connector-test-clickhouse-time-1</t>
   </si>
   <si>
@@ -474,15 +471,9 @@
     <t>update_time&gt;'2021-06-03T04:50:19'</t>
   </si>
   <si>
-    <t>update_time&lt;'2021-06-03T04:50:19'</t>
-  </si>
-  <si>
     <t>update_time&gt;'2021-06-03 04:50:19'</t>
   </si>
   <si>
-    <t>update_time&lt;'2021-06-03 04:50:19'</t>
-  </si>
-  <si>
     <t>snc-connector-test-oracle-time-3</t>
   </si>
   <si>
@@ -562,6 +553,18 @@
   </si>
   <si>
     <t>do not support ruleKey value</t>
+  </si>
+  <si>
+    <t>outputcurrent_actual_AI0='160.66702'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time&lt;'2021-09-06 13:33:58'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time&lt;'2021-09-06T13:34:18'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -572,20 +575,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -921,24 +924,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ABFD6B-5C24-4B5A-830A-CA8DC1E4BA91}">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M88" sqref="M88"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.15234375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.61328125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="12.61328125" style="1"/>
-    <col min="6" max="6" width="17.53515625" style="1" customWidth="1"/>
-    <col min="7" max="12" width="12.61328125" style="1"/>
-    <col min="13" max="13" width="32.61328125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="12.61328125" style="1"/>
+    <col min="1" max="1" width="33.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" style="1"/>
+    <col min="6" max="6" width="17.5546875" style="1" customWidth="1"/>
+    <col min="7" max="12" width="12.6640625" style="1"/>
+    <col min="13" max="13" width="32.6640625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -979,7 +982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
@@ -1000,7 +1003,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -1021,7 +1024,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -1048,7 +1051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -1073,7 +1076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -1096,7 +1099,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -1119,7 +1122,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
@@ -1142,7 +1145,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
@@ -1165,7 +1168,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
@@ -1188,7 +1191,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>40</v>
       </c>
@@ -1211,7 +1214,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
@@ -1234,7 +1237,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
@@ -1257,7 +1260,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -1280,7 +1283,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>45</v>
       </c>
@@ -1303,7 +1306,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -1326,7 +1329,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
@@ -1353,7 +1356,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>53</v>
       </c>
@@ -1380,7 +1383,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
@@ -1403,7 +1406,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
@@ -1428,7 +1431,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>58</v>
       </c>
@@ -1453,7 +1456,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>59</v>
       </c>
@@ -1478,7 +1481,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
@@ -1505,7 +1508,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
@@ -1532,7 +1535,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>61</v>
       </c>
@@ -1559,7 +1562,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>60</v>
       </c>
@@ -1586,7 +1589,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>62</v>
       </c>
@@ -1609,7 +1612,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>63</v>
       </c>
@@ -1632,7 +1635,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>64</v>
       </c>
@@ -1655,7 +1658,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>65</v>
       </c>
@@ -1678,7 +1681,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>66</v>
       </c>
@@ -1703,7 +1706,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>67</v>
       </c>
@@ -1728,7 +1731,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>68</v>
       </c>
@@ -1753,7 +1756,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>69</v>
       </c>
@@ -1778,7 +1781,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>70</v>
       </c>
@@ -1803,7 +1806,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>71</v>
       </c>
@@ -1828,7 +1831,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>72</v>
       </c>
@@ -1853,7 +1856,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>73</v>
       </c>
@@ -1878,7 +1881,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>74</v>
       </c>
@@ -1901,7 +1904,7 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>75</v>
       </c>
@@ -1924,7 +1927,7 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>76</v>
       </c>
@@ -1947,7 +1950,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>77</v>
       </c>
@@ -1970,7 +1973,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>78</v>
       </c>
@@ -1993,7 +1996,7 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>79</v>
       </c>
@@ -2016,7 +2019,7 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>80</v>
       </c>
@@ -2039,7 +2042,7 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>81</v>
       </c>
@@ -2062,12 +2065,12 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>84</v>
@@ -2085,12 +2088,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>86</v>
@@ -2108,12 +2111,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>87</v>
@@ -2131,12 +2134,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>89</v>
@@ -2154,12 +2157,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>91</v>
@@ -2177,12 +2180,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>93</v>
@@ -2200,12 +2203,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>95</v>
@@ -2223,12 +2226,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>97</v>
@@ -2246,12 +2249,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>99</v>
@@ -2269,12 +2272,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>101</v>
@@ -2292,12 +2295,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>102</v>
@@ -2315,15 +2318,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>26</v>
@@ -2338,15 +2341,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>26</v>
@@ -2361,12 +2364,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>103</v>
@@ -2384,12 +2387,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>104</v>
@@ -2407,12 +2410,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>105</v>
@@ -2430,15 +2433,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>106</v>
@@ -2453,15 +2456,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>106</v>
@@ -2476,15 +2479,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>106</v>
@@ -2499,15 +2502,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>106</v>
@@ -2522,15 +2525,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>106</v>
@@ -2545,15 +2548,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>106</v>
@@ -2568,12 +2571,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>107</v>
@@ -2591,15 +2594,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>88</v>
@@ -2614,15 +2617,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>88</v>
@@ -2637,15 +2640,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>88</v>
@@ -2660,15 +2663,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>88</v>
@@ -2683,12 +2686,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>134</v>
@@ -2706,12 +2709,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>136</v>
@@ -2729,15 +2732,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>135</v>
@@ -2752,15 +2755,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>135</v>
@@ -2775,15 +2778,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>135</v>
@@ -2798,15 +2801,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>135</v>
@@ -2821,15 +2824,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>135</v>
@@ -2844,100 +2847,100 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="L81" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
+      <c r="B84" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="L82" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="L83" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="L84" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="B85" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L85" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H86" s="1">
         <v>1</v>
@@ -2949,35 +2952,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L87" s="1">
         <v>106601</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H88" s="1">
         <v>1</v>

--- a/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
+++ b/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-with-comment\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCFFE2A-FCEE-472B-81FA-EA01916BD594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B772948-0C80-4955-836F-819A77CCD685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -555,15 +555,15 @@
     <t>do not support ruleKey value</t>
   </si>
   <si>
-    <t>outputcurrent_actual_AI0='160.66702'</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>update_time&lt;'2021-09-06 13:33:58'</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>update_time&lt;'2021-09-06T13:34:18'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>outputcurrent_actual_AI0='129.68036'</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -926,7 +926,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2740,7 +2740,7 @@
         <v>159</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>135</v>
@@ -2786,7 +2786,7 @@
         <v>159</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>135</v>
@@ -2832,7 +2832,7 @@
         <v>159</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>135</v>

--- a/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
+++ b/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-with-comment\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B772948-0C80-4955-836F-819A77CCD685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24043799-4535-4FBE-AEE2-48D1A61C9B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32811" yWindow="-129" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getConceptModelDataByCondition" sheetId="2" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>searchData.name is not valid,reason: must not be blank</t>
   </si>
   <si>
-    <t>The m2 service unavailable: (request M2 failed : no found entity ).</t>
-  </si>
-  <si>
     <t>1=1</t>
   </si>
   <si>
@@ -565,6 +562,9 @@
   <si>
     <t>outputcurrent_actual_AI0='129.68036'</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[add domain entities for mapping success] info</t>
   </si>
 </sst>
 </file>
@@ -575,20 +575,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -924,24 +924,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ABFD6B-5C24-4B5A-830A-CA8DC1E4BA91}">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.69140625" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="12.6640625" style="1"/>
-    <col min="6" max="6" width="17.5546875" style="1" customWidth="1"/>
-    <col min="7" max="12" width="12.6640625" style="1"/>
-    <col min="13" max="13" width="32.6640625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="12.6640625" style="1"/>
+    <col min="1" max="1" width="33.07421875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.4609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.69140625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="12.69140625" style="1"/>
+    <col min="6" max="6" width="17.53515625" style="1" customWidth="1"/>
+    <col min="7" max="12" width="12.69140625" style="1"/>
+    <col min="13" max="13" width="32.69140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="12.69140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -982,9 +982,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -993,7 +993,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1003,9 +1003,9 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -1014,7 +1014,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1024,9 +1024,9 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -1051,9 +1051,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
@@ -1070,26 +1070,26 @@
       <c r="J5" s="3"/>
       <c r="K5" s="4"/>
       <c r="L5" s="3">
-        <v>108001</v>
+        <v>106920</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1099,20 +1099,20 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -1122,20 +1122,20 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1145,20 +1145,20 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1168,20 +1168,20 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1191,20 +1191,20 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1214,20 +1214,20 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1237,20 +1237,20 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1260,9 +1260,9 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>5</v>
@@ -1270,10 +1270,10 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1283,9 +1283,9 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>5</v>
@@ -1293,10 +1293,10 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1306,9 +1306,9 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>5</v>
@@ -1316,10 +1316,10 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1329,20 +1329,20 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -1353,23 +1353,23 @@
         <v>106107</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1380,12 +1380,12 @@
         <v>106107</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>5</v>
@@ -1394,10 +1394,10 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1406,9 +1406,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>5</v>
@@ -1417,10 +1417,10 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3">
@@ -1431,9 +1431,9 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>5</v>
@@ -1442,10 +1442,10 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3">
@@ -1456,9 +1456,9 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>5</v>
@@ -1467,10 +1467,10 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3">
@@ -1481,18 +1481,18 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G23" s="3">
         <v>12321</v>
@@ -1505,21 +1505,21 @@
         <v>106107</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G24" s="3">
         <v>12321</v>
@@ -1532,24 +1532,24 @@
         <v>106107</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -1559,24 +1559,24 @@
         <v>106107</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -1586,12 +1586,12 @@
         <v>106107</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>5</v>
@@ -1600,7 +1600,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3">
@@ -1612,9 +1612,9 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>5</v>
@@ -1623,7 +1623,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3">
@@ -1635,9 +1635,9 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>5</v>
@@ -1646,7 +1646,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -1658,9 +1658,9 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>5</v>
@@ -1669,7 +1669,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -1681,9 +1681,9 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>5</v>
@@ -1692,7 +1692,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3">
@@ -1706,9 +1706,9 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>5</v>
@@ -1717,7 +1717,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3">
@@ -1731,9 +1731,9 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>5</v>
@@ -1742,7 +1742,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3">
@@ -1756,9 +1756,9 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>5</v>
@@ -1767,7 +1767,7 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3">
@@ -1781,9 +1781,9 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>5</v>
@@ -1792,7 +1792,7 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3">
@@ -1806,9 +1806,9 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>5</v>
@@ -1817,7 +1817,7 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3">
@@ -1831,9 +1831,9 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>5</v>
@@ -1842,7 +1842,7 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3">
@@ -1856,9 +1856,9 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>5</v>
@@ -1867,7 +1867,7 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3">
@@ -1881,9 +1881,9 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>5</v>
@@ -1892,7 +1892,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3">
@@ -1904,9 +1904,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>5</v>
@@ -1915,7 +1915,7 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3">
@@ -1927,9 +1927,9 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>5</v>
@@ -1938,7 +1938,7 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3">
@@ -1950,9 +1950,9 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>5</v>
@@ -1961,7 +1961,7 @@
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3">
@@ -1973,9 +1973,9 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>5</v>
@@ -1984,7 +1984,7 @@
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -1996,9 +1996,9 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>5</v>
@@ -2007,7 +2007,7 @@
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -2019,9 +2019,9 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>5</v>
@@ -2030,7 +2030,7 @@
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -2042,9 +2042,9 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>5</v>
@@ -2053,7 +2053,7 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -2065,639 +2065,639 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B48" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="L62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0</v>
-      </c>
-      <c r="L47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B48" s="3" t="s">
+      <c r="C67" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="L67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0</v>
-      </c>
-      <c r="L48" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="C68" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="L68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="L69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H49" s="1">
-        <v>0</v>
-      </c>
-      <c r="I49" s="1">
-        <v>0</v>
-      </c>
-      <c r="L49" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H50" s="1">
-        <v>0</v>
-      </c>
-      <c r="I50" s="1">
-        <v>0</v>
-      </c>
-      <c r="L50" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H51" s="1">
-        <v>0</v>
-      </c>
-      <c r="I51" s="1">
-        <v>0</v>
-      </c>
-      <c r="L51" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H52" s="1">
-        <v>0</v>
-      </c>
-      <c r="I52" s="1">
-        <v>0</v>
-      </c>
-      <c r="L52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H53" s="1">
-        <v>0</v>
-      </c>
-      <c r="I53" s="1">
-        <v>0</v>
-      </c>
-      <c r="L53" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H54" s="1">
-        <v>0</v>
-      </c>
-      <c r="I54" s="1">
-        <v>0</v>
-      </c>
-      <c r="L54" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H55" s="1">
-        <v>0</v>
-      </c>
-      <c r="I55" s="1">
-        <v>0</v>
-      </c>
-      <c r="L55" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H56" s="1">
-        <v>0</v>
-      </c>
-      <c r="I56" s="1">
-        <v>0</v>
-      </c>
-      <c r="L56" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H57" s="1">
-        <v>0</v>
-      </c>
-      <c r="I57" s="1">
-        <v>0</v>
-      </c>
-      <c r="L57" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H58" s="1">
-        <v>0</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0</v>
-      </c>
-      <c r="L58" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H59" s="1">
-        <v>0</v>
-      </c>
-      <c r="I59" s="1">
-        <v>0</v>
-      </c>
-      <c r="L59" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H60" s="1">
-        <v>0</v>
-      </c>
-      <c r="I60" s="1">
-        <v>0</v>
-      </c>
-      <c r="L60" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H61" s="1">
-        <v>0</v>
-      </c>
-      <c r="I61" s="1">
-        <v>0</v>
-      </c>
-      <c r="L61" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H62" s="1">
-        <v>0</v>
-      </c>
-      <c r="I62" s="1">
-        <v>0</v>
-      </c>
-      <c r="L62" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H63" s="1">
-        <v>0</v>
-      </c>
-      <c r="I63" s="1">
-        <v>0</v>
-      </c>
-      <c r="L63" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H64" s="1">
-        <v>0</v>
-      </c>
-      <c r="I64" s="1">
-        <v>0</v>
-      </c>
-      <c r="L64" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H65" s="1">
-        <v>0</v>
-      </c>
-      <c r="I65" s="1">
-        <v>0</v>
-      </c>
-      <c r="L65" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H66" s="1">
-        <v>0</v>
-      </c>
-      <c r="I66" s="1">
-        <v>0</v>
-      </c>
-      <c r="L66" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H67" s="1">
-        <v>0</v>
-      </c>
-      <c r="I67" s="1">
-        <v>0</v>
-      </c>
-      <c r="L67" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H68" s="1">
-        <v>0</v>
-      </c>
-      <c r="I68" s="1">
-        <v>0</v>
-      </c>
-      <c r="L68" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H69" s="1">
-        <v>0</v>
-      </c>
-      <c r="I69" s="1">
-        <v>0</v>
-      </c>
-      <c r="L69" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+      <c r="L70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="B71" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H70" s="1">
-        <v>0</v>
-      </c>
-      <c r="I70" s="1">
-        <v>0</v>
-      </c>
-      <c r="L70" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="F71" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="L71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="B72" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H71" s="1">
-        <v>0</v>
-      </c>
-      <c r="I71" s="1">
-        <v>0</v>
-      </c>
-      <c r="L71" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="F72" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="B73" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H72" s="1">
-        <v>0</v>
-      </c>
-      <c r="I72" s="1">
-        <v>0</v>
-      </c>
-      <c r="L72" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="F73" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0</v>
+      </c>
+      <c r="L73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H73" s="1">
-        <v>0</v>
-      </c>
-      <c r="I73" s="1">
-        <v>0</v>
-      </c>
-      <c r="L73" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="B74" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C74" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="H74" s="1">
         <v>1</v>
@@ -2709,18 +2709,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H75" s="1">
         <v>1</v>
@@ -2732,41 +2732,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0</v>
+      </c>
+      <c r="L76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H76" s="1">
-        <v>0</v>
-      </c>
-      <c r="I76" s="1">
-        <v>0</v>
-      </c>
-      <c r="L76" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="B77" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H77" s="1">
         <v>1</v>
@@ -2778,18 +2778,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H78" s="1">
         <v>1</v>
@@ -2801,18 +2801,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H79" s="1">
         <v>1</v>
@@ -2824,18 +2824,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H80" s="1">
         <v>1</v>
@@ -2847,100 +2847,100 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="L81" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="B82" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G82" s="1" t="s">
+      <c r="B83" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="L82" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="L83" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="F84" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="L84" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="B85" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L85" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H86" s="1">
         <v>1</v>
@@ -2952,35 +2952,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L87" s="1">
         <v>106601</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H88" s="1">
         <v>1</v>

--- a/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
+++ b/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24043799-4535-4FBE-AEE2-48D1A61C9B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E985E9-46E9-49DD-8679-8FE5A1D3D352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32811" yWindow="-129" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getConceptModelDataByCondition" sheetId="2" r:id="rId1"/>
@@ -564,7 +564,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[add domain entities for mapping success] info</t>
+    <t>External configuration service is unavailable</t>
   </si>
 </sst>
 </file>
@@ -924,24 +924,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ABFD6B-5C24-4B5A-830A-CA8DC1E4BA91}">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.69140625" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.07421875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.69140625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="12.69140625" style="1"/>
-    <col min="6" max="6" width="17.53515625" style="1" customWidth="1"/>
-    <col min="7" max="12" width="12.69140625" style="1"/>
-    <col min="13" max="13" width="32.69140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="12.69140625" style="1"/>
+    <col min="1" max="1" width="33.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" style="1"/>
+    <col min="6" max="6" width="17.5546875" style="1" customWidth="1"/>
+    <col min="7" max="12" width="12.6640625" style="1"/>
+    <col min="13" max="13" width="32.6640625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -982,7 +982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -1003,7 +1003,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -1024,7 +1024,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
@@ -1099,7 +1099,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
@@ -1145,7 +1145,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
@@ -1168,7 +1168,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
@@ -1191,7 +1191,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
@@ -1214,7 +1214,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
@@ -1237,7 +1237,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
@@ -1260,7 +1260,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
@@ -1283,7 +1283,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
@@ -1306,7 +1306,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
@@ -1329,7 +1329,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>51</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>52</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>53</v>
       </c>
@@ -1406,7 +1406,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>56</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>57</v>
       </c>
@@ -1456,7 +1456,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>58</v>
       </c>
@@ -1481,7 +1481,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>50</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>60</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>59</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>61</v>
       </c>
@@ -1612,7 +1612,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>62</v>
       </c>
@@ -1635,7 +1635,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>63</v>
       </c>
@@ -1658,7 +1658,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>64</v>
       </c>
@@ -1681,7 +1681,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>65</v>
       </c>
@@ -1706,7 +1706,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>66</v>
       </c>
@@ -1731,7 +1731,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>67</v>
       </c>
@@ -1756,7 +1756,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>68</v>
       </c>
@@ -1781,7 +1781,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>69</v>
       </c>
@@ -1806,7 +1806,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>70</v>
       </c>
@@ -1831,7 +1831,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>71</v>
       </c>
@@ -1856,7 +1856,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>72</v>
       </c>
@@ -1881,7 +1881,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>73</v>
       </c>
@@ -1904,7 +1904,7 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>74</v>
       </c>
@@ -1927,7 +1927,7 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>75</v>
       </c>
@@ -1950,7 +1950,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>76</v>
       </c>
@@ -1973,7 +1973,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>77</v>
       </c>
@@ -1996,7 +1996,7 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>78</v>
       </c>
@@ -2019,7 +2019,7 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>79</v>
       </c>
@@ -2042,7 +2042,7 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>80</v>
       </c>
@@ -2065,7 +2065,7 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>107</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>108</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>109</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>110</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>111</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>112</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>113</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>114</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>115</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>116</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>117</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>118</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>148</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>149</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>119</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>120</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>121</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>122</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>123</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>124</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>125</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>126</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>127</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>128</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>129</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>130</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>131</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>132</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>141</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>136</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>137</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>138</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>139</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>140</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>161</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>163</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>164</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>165</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>168</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>172</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>173</v>
       </c>

--- a/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
+++ b/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-backup\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E985E9-46E9-49DD-8679-8FE5A1D3D352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1592AA-5ECC-4707-B2BD-FF2642EECA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,7 +564,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>External configuration service is unavailable</t>
+    <t>This entity 12321 is not found in domain [iEMS].</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -575,20 +576,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -929,7 +930,7 @@
       <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="50.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -941,7 +942,7 @@
     <col min="14" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -982,7 +983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -1003,7 +1004,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -1024,7 +1025,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1051,7 +1052,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -1076,7 +1077,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
@@ -1099,7 +1100,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -1122,7 +1123,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
@@ -1145,7 +1146,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
@@ -1168,7 +1169,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
@@ -1191,7 +1192,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
@@ -1214,7 +1215,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
@@ -1237,7 +1238,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
@@ -1260,7 +1261,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
@@ -1283,7 +1284,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
@@ -1306,7 +1307,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
@@ -1329,7 +1330,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>51</v>
       </c>
@@ -1356,7 +1357,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>52</v>
       </c>
@@ -1383,7 +1384,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>53</v>
       </c>
@@ -1406,7 +1407,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>56</v>
       </c>
@@ -1431,7 +1432,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>57</v>
       </c>
@@ -1456,7 +1457,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>58</v>
       </c>
@@ -1481,7 +1482,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
@@ -1508,7 +1509,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>50</v>
       </c>
@@ -1535,7 +1536,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>60</v>
       </c>
@@ -1562,7 +1563,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>59</v>
       </c>
@@ -1589,7 +1590,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>61</v>
       </c>
@@ -1612,7 +1613,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>62</v>
       </c>
@@ -1635,7 +1636,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>63</v>
       </c>
@@ -1658,7 +1659,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>64</v>
       </c>
@@ -1681,7 +1682,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>65</v>
       </c>
@@ -1706,7 +1707,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>66</v>
       </c>
@@ -1731,7 +1732,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>67</v>
       </c>
@@ -1756,7 +1757,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>68</v>
       </c>
@@ -1781,7 +1782,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>69</v>
       </c>
@@ -1806,7 +1807,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>70</v>
       </c>
@@ -1831,7 +1832,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>71</v>
       </c>
@@ -1856,7 +1857,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>72</v>
       </c>
@@ -1881,7 +1882,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>73</v>
       </c>
@@ -1904,7 +1905,7 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>74</v>
       </c>
@@ -1927,7 +1928,7 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>75</v>
       </c>
@@ -1950,7 +1951,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>76</v>
       </c>
@@ -1973,7 +1974,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>77</v>
       </c>
@@ -1996,7 +1997,7 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>78</v>
       </c>
@@ -2019,7 +2020,7 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>79</v>
       </c>
@@ -2042,7 +2043,7 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>80</v>
       </c>
@@ -2065,7 +2066,7 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>107</v>
       </c>
@@ -2088,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>108</v>
       </c>
@@ -2111,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>109</v>
       </c>
@@ -2134,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>110</v>
       </c>
@@ -2157,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>111</v>
       </c>
@@ -2180,7 +2181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>112</v>
       </c>
@@ -2203,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>113</v>
       </c>
@@ -2226,7 +2227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>114</v>
       </c>
@@ -2249,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>115</v>
       </c>
@@ -2272,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>116</v>
       </c>
@@ -2295,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>117</v>
       </c>
@@ -2318,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>118</v>
       </c>
@@ -2341,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>148</v>
       </c>
@@ -2364,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>149</v>
       </c>
@@ -2387,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>119</v>
       </c>
@@ -2410,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>120</v>
       </c>
@@ -2433,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>121</v>
       </c>
@@ -2456,7 +2457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>122</v>
       </c>
@@ -2479,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>123</v>
       </c>
@@ -2502,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>124</v>
       </c>
@@ -2525,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>125</v>
       </c>
@@ -2548,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>126</v>
       </c>
@@ -2571,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>127</v>
       </c>
@@ -2594,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>128</v>
       </c>
@@ -2617,7 +2618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>129</v>
       </c>
@@ -2640,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>130</v>
       </c>
@@ -2663,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>131</v>
       </c>
@@ -2686,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>132</v>
       </c>
@@ -2709,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>141</v>
       </c>
@@ -2732,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>136</v>
       </c>
@@ -2755,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>137</v>
       </c>
@@ -2778,7 +2779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>138</v>
       </c>
@@ -2801,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>139</v>
       </c>
@@ -2824,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>140</v>
       </c>
@@ -2847,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>161</v>
       </c>
@@ -2861,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
@@ -2878,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>163</v>
       </c>
@@ -2895,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>164</v>
       </c>
@@ -2912,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>165</v>
       </c>
@@ -2929,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>168</v>
       </c>
@@ -2952,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>172</v>
       </c>
@@ -2972,7 +2973,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>173</v>
       </c>

--- a/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
+++ b/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-backup\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1592AA-5ECC-4707-B2BD-FF2642EECA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6B4218-0227-416E-B350-774241A54CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -927,7 +927,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1071,7 +1071,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="4"/>
       <c r="L5" s="3">
-        <v>106920</v>
+        <v>108002</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>178</v>

--- a/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
+++ b/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-backup\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6B4218-0227-416E-B350-774241A54CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2323047D-BA9A-44BA-9BCB-80F278685BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getConceptModelDataByCondition" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="182">
   <si>
     <t>name</t>
   </si>
@@ -465,12 +465,6 @@
     <t>IgnoreShortages=true</t>
   </si>
   <si>
-    <t>update_time&gt;'2021-06-03T04:50:19'</t>
-  </si>
-  <si>
-    <t>update_time&gt;'2021-06-03 04:50:19'</t>
-  </si>
-  <si>
     <t>snc-connector-test-oracle-time-3</t>
   </si>
   <si>
@@ -534,9 +528,6 @@
     <t>snc-connector-differentTablesInTwoDb-6</t>
   </si>
   <si>
-    <t>plant_owner=3</t>
-  </si>
-  <si>
     <t>location,-description</t>
   </si>
   <si>
@@ -547,9 +538,6 @@
   </si>
   <si>
     <t>snc-connector-differentTablesInTwoDb-8</t>
-  </si>
-  <si>
-    <t>do not support ruleKey value</t>
   </si>
   <si>
     <t>update_time&lt;'2021-09-06 13:33:58'</t>
@@ -564,7 +552,34 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>This entity 12321 is not found in domain [iEMS].</t>
+    <t>This entity 12321 is not found in domain [complexjson].</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bad request  (greater than the max records)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The number of reply records is greater than the max records</t>
+  </si>
+  <si>
+    <t>The number of reply records is greater than the max records</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time&lt;'2021-06-03 04:50:19'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time&gt;'2022-04-23T04:50:19'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>plant_owner=3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>do not support ruleKey value</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -925,14 +940,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ABFD6B-5C24-4B5A-830A-CA8DC1E4BA91}">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A87" sqref="A87:XFD87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="50.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.6640625" style="1" customWidth="1"/>
     <col min="4" max="5" width="12.6640625" style="1"/>
@@ -1074,7 +1089,7 @@
         <v>108002</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2071,7 +2086,7 @@
         <v>107</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>83</v>
@@ -2094,7 +2109,7 @@
         <v>108</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>85</v>
@@ -2117,7 +2132,7 @@
         <v>109</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>86</v>
@@ -2140,7 +2155,7 @@
         <v>110</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>88</v>
@@ -2163,7 +2178,7 @@
         <v>111</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>90</v>
@@ -2186,7 +2201,7 @@
         <v>112</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>92</v>
@@ -2209,7 +2224,7 @@
         <v>113</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>94</v>
@@ -2232,7 +2247,7 @@
         <v>114</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>96</v>
@@ -2255,7 +2270,7 @@
         <v>115</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>98</v>
@@ -2278,7 +2293,7 @@
         <v>116</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>100</v>
@@ -2301,7 +2316,7 @@
         <v>117</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>101</v>
@@ -2324,10 +2339,10 @@
         <v>118</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>25</v>
@@ -2344,13 +2359,13 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>25</v>
@@ -2367,10 +2382,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>102</v>
@@ -2393,7 +2408,7 @@
         <v>119</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>103</v>
@@ -2416,7 +2431,7 @@
         <v>120</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>104</v>
@@ -2439,7 +2454,7 @@
         <v>121</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>142</v>
@@ -2462,7 +2477,7 @@
         <v>122</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>143</v>
@@ -2480,12 +2495,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>144</v>
@@ -2503,12 +2518,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>145</v>
@@ -2526,15 +2541,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>105</v>
@@ -2549,15 +2564,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>105</v>
@@ -2572,12 +2587,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>106</v>
@@ -2595,15 +2610,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>87</v>
@@ -2618,15 +2633,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>87</v>
@@ -2641,15 +2656,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>87</v>
@@ -2664,15 +2679,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>87</v>
@@ -2687,12 +2702,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>133</v>
@@ -2709,13 +2724,16 @@
       <c r="L74" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>135</v>
@@ -2732,16 +2750,19 @@
       <c r="L75" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>134</v>
@@ -2756,15 +2777,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>134</v>
@@ -2779,15 +2800,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>134</v>
@@ -2802,15 +2823,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>134</v>
@@ -2825,15 +2846,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>134</v>
@@ -2850,13 +2871,13 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="L81" s="1">
         <v>0</v>
@@ -2864,16 +2885,16 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="G82" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L82" s="1">
         <v>0</v>
@@ -2881,16 +2902,16 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="G83" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L83" s="1">
         <v>0</v>
@@ -2898,16 +2919,16 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="L84" s="1">
         <v>0</v>
@@ -2915,16 +2936,16 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L85" s="1">
         <v>0</v>
@@ -2932,16 +2953,16 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="G86" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H86" s="1">
         <v>1</v>
@@ -2955,33 +2976,33 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L87" s="1">
         <v>106601</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B88" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="H88" s="1">
         <v>1</v>

--- a/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
+++ b/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-backup\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2323047D-BA9A-44BA-9BCB-80F278685BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65101437-4C43-4555-B68F-D0C06B4B09D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -940,9 +940,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ABFD6B-5C24-4B5A-830A-CA8DC1E4BA91}">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A87" sqref="A87:XFD87"/>
+      <selection pane="bottomLeft" activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2722,7 +2722,7 @@
         <v>2</v>
       </c>
       <c r="L74" s="1">
-        <v>0</v>
+        <v>106130</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>177</v>
@@ -2748,7 +2748,7 @@
         <v>2</v>
       </c>
       <c r="L75" s="1">
-        <v>0</v>
+        <v>106130</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>176</v>

--- a/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
+++ b/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-backup\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65101437-4C43-4555-B68F-D0C06B4B09D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7112C22E-7340-43A5-9BF0-FC9D313082F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getConceptModelDataByCondition" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="181">
   <si>
     <t>name</t>
   </si>
@@ -575,11 +575,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>plant_owner=3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>do not support ruleKey value</t>
+    <t>plant_owner='3'</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -940,9 +936,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ABFD6B-5C24-4B5A-830A-CA8DC1E4BA91}">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L75" sqref="L75"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M90" sqref="M90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2869,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>159</v>
       </c>
@@ -2883,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>160</v>
       </c>
@@ -2900,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>161</v>
       </c>
@@ -2917,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>162</v>
       </c>
@@ -2934,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>163</v>
       </c>
@@ -2951,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>166</v>
       </c>
@@ -2974,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>169</v>
       </c>
@@ -2988,13 +2984,10 @@
         <v>158</v>
       </c>
       <c r="L87" s="1">
-        <v>106601</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>170</v>
       </c>

--- a/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
+++ b/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-backup\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7112C22E-7340-43A5-9BF0-FC9D313082F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECC9100-A6FA-4F03-BED7-481DF3C31CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="179">
   <si>
     <t>name</t>
   </si>
@@ -432,9 +432,6 @@
     <t>SINAMICS_300_Log</t>
   </si>
   <si>
-    <t>port='8'</t>
-  </si>
-  <si>
     <t>snc-connector-test-clickhouse-float-1</t>
   </si>
   <si>
@@ -459,12 +456,6 @@
     <t>IgnoreShortages='true'</t>
   </si>
   <si>
-    <t>IgnoreShortages=false</t>
-  </si>
-  <si>
-    <t>IgnoreShortages=true</t>
-  </si>
-  <si>
     <t>snc-connector-test-oracle-time-3</t>
   </si>
   <si>
@@ -529,9 +520,6 @@
   </si>
   <si>
     <t>location,-description</t>
-  </si>
-  <si>
-    <t>bad request (condition includes rule key)</t>
   </si>
   <si>
     <t>snc-connector-differentTablesInTwoDb-7</t>
@@ -548,34 +536,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>outputcurrent_actual_AI0='129.68036'</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>This entity 12321 is not found in domain [complexjson].</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>bad request  (greater than the max records)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>The number of reply records is greater than the max records</t>
-  </si>
-  <si>
-    <t>The number of reply records is greater than the max records</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>update_time&lt;'2021-06-03 04:50:19'</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>update_time&gt;'2022-04-23T04:50:19'</t>
+    <t>plant_owner='3'</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>plant_owner='3'</t>
+    <t>IgnoreShortages='false'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IgnoreShortages='true'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>good request, data retrieved (no schema check)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>good request, data retrieved (no schema check)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>port=8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>outputcurrent_actual_AI0=0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time&lt;'2022-04-23T04:50:19'</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -936,9 +933,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ABFD6B-5C24-4B5A-830A-CA8DC1E4BA91}">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M90" sqref="M90"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D87" sqref="A87:XFD87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -948,7 +945,8 @@
     <col min="3" max="3" width="32.6640625" style="1" customWidth="1"/>
     <col min="4" max="5" width="12.6640625" style="1"/>
     <col min="6" max="6" width="17.5546875" style="1" customWidth="1"/>
-    <col min="7" max="12" width="12.6640625" style="1"/>
+    <col min="7" max="11" width="12.6640625" style="1"/>
+    <col min="12" max="12" width="25.88671875" style="1" customWidth="1"/>
     <col min="13" max="13" width="32.6640625" style="1" customWidth="1"/>
     <col min="14" max="16384" width="12.6640625" style="1"/>
   </cols>
@@ -1085,7 +1083,7 @@
         <v>108002</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2082,7 +2080,7 @@
         <v>107</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>83</v>
@@ -2105,7 +2103,7 @@
         <v>108</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>85</v>
@@ -2128,7 +2126,7 @@
         <v>109</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>86</v>
@@ -2151,7 +2149,7 @@
         <v>110</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>88</v>
@@ -2174,7 +2172,7 @@
         <v>111</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>90</v>
@@ -2197,7 +2195,7 @@
         <v>112</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>92</v>
@@ -2220,7 +2218,7 @@
         <v>113</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>94</v>
@@ -2243,7 +2241,7 @@
         <v>114</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>96</v>
@@ -2266,7 +2264,7 @@
         <v>115</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>98</v>
@@ -2289,7 +2287,7 @@
         <v>116</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>100</v>
@@ -2312,7 +2310,7 @@
         <v>117</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>101</v>
@@ -2335,10 +2333,10 @@
         <v>118</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>25</v>
@@ -2355,13 +2353,13 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>25</v>
@@ -2378,10 +2376,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>102</v>
@@ -2404,7 +2402,7 @@
         <v>119</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>103</v>
@@ -2427,7 +2425,7 @@
         <v>120</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>104</v>
@@ -2450,10 +2448,10 @@
         <v>121</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>105</v>
@@ -2473,10 +2471,10 @@
         <v>122</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>105</v>
@@ -2491,15 +2489,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>105</v>
@@ -2514,15 +2512,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>105</v>
@@ -2537,15 +2535,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>105</v>
@@ -2560,15 +2558,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>105</v>
@@ -2583,12 +2581,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>106</v>
@@ -2606,15 +2604,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>87</v>
@@ -2629,15 +2627,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>87</v>
@@ -2652,15 +2650,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>87</v>
@@ -2675,15 +2673,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>87</v>
@@ -2698,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>132</v>
       </c>
@@ -2718,21 +2716,18 @@
         <v>2</v>
       </c>
       <c r="L74" s="1">
-        <v>106130</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>175</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>134</v>
@@ -2744,21 +2739,18 @@
         <v>2</v>
       </c>
       <c r="L75" s="1">
-        <v>106130</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>134</v>
@@ -2773,15 +2765,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>134</v>
@@ -2796,15 +2788,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>134</v>
@@ -2819,15 +2811,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>134</v>
@@ -2842,15 +2834,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>134</v>
@@ -2867,13 +2859,13 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L81" s="1">
         <v>0</v>
@@ -2881,16 +2873,16 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L82" s="1">
         <v>0</v>
@@ -2898,16 +2890,16 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L83" s="1">
         <v>0</v>
@@ -2915,16 +2907,16 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="F84" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L84" s="1">
         <v>0</v>
@@ -2932,16 +2924,16 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L85" s="1">
         <v>0</v>
@@ -2949,16 +2941,16 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H86" s="1">
         <v>1</v>
@@ -2972,16 +2964,16 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L87" s="1">
         <v>0</v>
@@ -2989,13 +2981,13 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H88" s="1">
         <v>1</v>

--- a/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
+++ b/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECC9100-A6FA-4F03-BED7-481DF3C31CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4461EB01-4EA6-40EF-82EC-D1305C1ADE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="178">
   <si>
     <t>name</t>
   </si>
@@ -430,9 +430,6 @@
   </si>
   <si>
     <t>SINAMICS_300_Log</t>
-  </si>
-  <si>
-    <t>snc-connector-test-clickhouse-float-1</t>
   </si>
   <si>
     <t>snc-connector-test-clickhouse-time-1</t>
@@ -568,11 +565,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>outputcurrent_actual_AI0=0</t>
+    <t>update_time&lt;'2022-04-23T04:50:19'</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>update_time&lt;'2022-04-23T04:50:19'</t>
+    <t>SINAMICS_300_Log</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -931,11 +928,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ABFD6B-5C24-4B5A-830A-CA8DC1E4BA91}">
-  <dimension ref="A1:M88"/>
+  <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D87" sqref="A87:XFD87"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A76" sqref="A76:XFD76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1083,7 +1080,7 @@
         <v>108002</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2080,7 +2077,7 @@
         <v>107</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>83</v>
@@ -2103,7 +2100,7 @@
         <v>108</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>85</v>
@@ -2126,7 +2123,7 @@
         <v>109</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>86</v>
@@ -2149,7 +2146,7 @@
         <v>110</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>88</v>
@@ -2172,7 +2169,7 @@
         <v>111</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>90</v>
@@ -2195,7 +2192,7 @@
         <v>112</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>92</v>
@@ -2218,7 +2215,7 @@
         <v>113</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>94</v>
@@ -2241,7 +2238,7 @@
         <v>114</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>96</v>
@@ -2264,7 +2261,7 @@
         <v>115</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>98</v>
@@ -2287,7 +2284,7 @@
         <v>116</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>100</v>
@@ -2310,7 +2307,7 @@
         <v>117</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>101</v>
@@ -2333,10 +2330,10 @@
         <v>118</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>25</v>
@@ -2353,13 +2350,13 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>25</v>
@@ -2376,10 +2373,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>102</v>
@@ -2402,7 +2399,7 @@
         <v>119</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>103</v>
@@ -2425,7 +2422,7 @@
         <v>120</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>104</v>
@@ -2448,10 +2445,10 @@
         <v>121</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>105</v>
@@ -2471,10 +2468,10 @@
         <v>122</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>105</v>
@@ -2494,10 +2491,10 @@
         <v>123</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>105</v>
@@ -2517,10 +2514,10 @@
         <v>124</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>105</v>
@@ -2540,10 +2537,10 @@
         <v>125</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>105</v>
@@ -2563,10 +2560,10 @@
         <v>126</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>105</v>
@@ -2586,7 +2583,7 @@
         <v>127</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>106</v>
@@ -2609,10 +2606,10 @@
         <v>128</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>87</v>
@@ -2632,10 +2629,10 @@
         <v>129</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>87</v>
@@ -2655,10 +2652,10 @@
         <v>130</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>87</v>
@@ -2678,10 +2675,10 @@
         <v>131</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>87</v>
@@ -2701,7 +2698,7 @@
         <v>132</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>133</v>
@@ -2721,13 +2718,13 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>134</v>
@@ -2747,19 +2744,19 @@
         <v>135</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>134</v>
       </c>
       <c r="H76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L76" s="1">
         <v>0</v>
@@ -2770,10 +2767,10 @@
         <v>136</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>134</v>
@@ -2793,13 +2790,13 @@
         <v>137</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="H78" s="1">
         <v>1</v>
@@ -2816,10 +2813,10 @@
         <v>138</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>134</v>
@@ -2836,22 +2833,13 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H80" s="1">
-        <v>1</v>
-      </c>
-      <c r="I80" s="1">
-        <v>2</v>
+        <v>154</v>
       </c>
       <c r="L80" s="1">
         <v>0</v>
@@ -2862,10 +2850,13 @@
         <v>156</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="L81" s="1">
         <v>0</v>
@@ -2876,13 +2867,13 @@
         <v>157</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L82" s="1">
         <v>0</v>
@@ -2893,13 +2884,13 @@
         <v>158</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="L83" s="1">
         <v>0</v>
@@ -2910,13 +2901,13 @@
         <v>159</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L84" s="1">
         <v>0</v>
@@ -2924,16 +2915,22 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E85" s="1" t="s">
+      <c r="H85" s="1">
         <v>1</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>155</v>
+      <c r="I85" s="1">
+        <v>2</v>
       </c>
       <c r="L85" s="1">
         <v>0</v>
@@ -2941,22 +2938,16 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H86" s="1">
-        <v>1</v>
-      </c>
-      <c r="I86" s="1">
-        <v>2</v>
+        <v>154</v>
       </c>
       <c r="L86" s="1">
         <v>0</v>
@@ -2967,35 +2958,18 @@
         <v>165</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
+      </c>
+      <c r="H87" s="1">
+        <v>1</v>
+      </c>
+      <c r="I87" s="1">
+        <v>2</v>
       </c>
       <c r="L87" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H88" s="1">
-        <v>1</v>
-      </c>
-      <c r="I88" s="1">
-        <v>2</v>
-      </c>
-      <c r="L88" s="1">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
+++ b/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4461EB01-4EA6-40EF-82EC-D1305C1ADE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B464172-06C8-49C5-9C1E-F99BBDD2470E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="171">
   <si>
     <t>name</t>
   </si>
@@ -435,15 +435,6 @@
     <t>snc-connector-test-clickhouse-time-1</t>
   </si>
   <si>
-    <t>snc-connector-test-clickhouse-time-2</t>
-  </si>
-  <si>
-    <t>snc-connector-test-clickhouse-time-3</t>
-  </si>
-  <si>
-    <t>snc-connector-test-clickhouse-time-4</t>
-  </si>
-  <si>
     <t>snc-connector-test-clickhouse-int-1</t>
   </si>
   <si>
@@ -523,24 +514,12 @@
   </si>
   <si>
     <t>snc-connector-differentTablesInTwoDb-8</t>
-  </si>
-  <si>
-    <t>update_time&lt;'2021-09-06 13:33:58'</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_time&lt;'2021-09-06T13:34:18'</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>This entity 12321 is not found in domain [complexjson].</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>update_time&lt;'2021-06-03 04:50:19'</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>plant_owner='3'</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -565,11 +544,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>update_time&lt;'2022-04-23T04:50:19'</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SINAMICS_300_Log</t>
+    <t>update_time&lt;'1656038990'</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -928,11 +903,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ABFD6B-5C24-4B5A-830A-CA8DC1E4BA91}">
-  <dimension ref="A1:M87"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A76" sqref="A76:XFD76"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1080,7 +1055,7 @@
         <v>108002</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2077,7 +2052,7 @@
         <v>107</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>83</v>
@@ -2100,7 +2075,7 @@
         <v>108</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>85</v>
@@ -2123,7 +2098,7 @@
         <v>109</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>86</v>
@@ -2146,7 +2121,7 @@
         <v>110</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>88</v>
@@ -2169,7 +2144,7 @@
         <v>111</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>90</v>
@@ -2192,7 +2167,7 @@
         <v>112</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>92</v>
@@ -2215,7 +2190,7 @@
         <v>113</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>94</v>
@@ -2238,7 +2213,7 @@
         <v>114</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>96</v>
@@ -2261,7 +2236,7 @@
         <v>115</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>98</v>
@@ -2284,7 +2259,7 @@
         <v>116</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>100</v>
@@ -2307,7 +2282,7 @@
         <v>117</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>101</v>
@@ -2330,10 +2305,10 @@
         <v>118</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>25</v>
@@ -2350,13 +2325,13 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>25</v>
@@ -2373,10 +2348,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>102</v>
@@ -2399,7 +2374,7 @@
         <v>119</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>103</v>
@@ -2422,7 +2397,7 @@
         <v>120</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>104</v>
@@ -2445,10 +2420,10 @@
         <v>121</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>105</v>
@@ -2468,10 +2443,10 @@
         <v>122</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>105</v>
@@ -2491,10 +2466,10 @@
         <v>123</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>105</v>
@@ -2514,10 +2489,10 @@
         <v>124</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>105</v>
@@ -2537,10 +2512,10 @@
         <v>125</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>105</v>
@@ -2560,10 +2535,10 @@
         <v>126</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>105</v>
@@ -2583,7 +2558,7 @@
         <v>127</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>106</v>
@@ -2606,10 +2581,10 @@
         <v>128</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>87</v>
@@ -2629,10 +2604,10 @@
         <v>129</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>87</v>
@@ -2652,10 +2627,10 @@
         <v>130</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>87</v>
@@ -2675,10 +2650,10 @@
         <v>131</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>87</v>
@@ -2698,7 +2673,7 @@
         <v>132</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>133</v>
@@ -2718,13 +2693,13 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>134</v>
@@ -2744,10 +2719,10 @@
         <v>135</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>134</v>
@@ -2764,22 +2739,13 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H77" s="1">
-        <v>1</v>
-      </c>
-      <c r="I77" s="1">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="L77" s="1">
         <v>0</v>
@@ -2787,22 +2753,16 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H78" s="1">
-        <v>1</v>
-      </c>
-      <c r="I78" s="1">
-        <v>2</v>
+        <v>151</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="L78" s="1">
         <v>0</v>
@@ -2810,22 +2770,16 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H79" s="1">
-        <v>1</v>
-      </c>
-      <c r="I79" s="1">
-        <v>2</v>
+        <v>151</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="L79" s="1">
         <v>0</v>
@@ -2836,10 +2790,13 @@
         <v>155</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L80" s="1">
         <v>0</v>
@@ -2850,13 +2807,13 @@
         <v>156</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L81" s="1">
         <v>0</v>
@@ -2864,16 +2821,22 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>163</v>
+      <c r="H82" s="1">
+        <v>1</v>
+      </c>
+      <c r="I82" s="1">
+        <v>2</v>
       </c>
       <c r="L82" s="1">
         <v>0</v>
@@ -2881,16 +2844,16 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L83" s="1">
         <v>0</v>
@@ -2898,78 +2861,21 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E84" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H84" s="1">
         <v>1</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>154</v>
+      <c r="I84" s="1">
+        <v>2</v>
       </c>
       <c r="L84" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H85" s="1">
-        <v>1</v>
-      </c>
-      <c r="I85" s="1">
-        <v>2</v>
-      </c>
-      <c r="L85" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L86" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H87" s="1">
-        <v>1</v>
-      </c>
-      <c r="I87" s="1">
-        <v>2</v>
-      </c>
-      <c r="L87" s="1">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
+++ b/src/main/resources/test-data-xls/snc-connector-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B464172-06C8-49C5-9C1E-F99BBDD2470E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF20B9D-2560-412A-BDDF-7BE7D624D83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="172">
   <si>
     <t>name</t>
   </si>
@@ -544,7 +544,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>update_time&lt;'1656038990'</t>
+    <t>update_time&lt;'2022-04-23T04:50:19'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>good request, data retrieved (no schema check)，update_time was string on clickhouse db value was 1656038979 as example, so order by as String the result need note</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -906,8 +910,8 @@
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2719,7 +2723,7 @@
         <v>135</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>170</v>
